--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B1FF6C-4E2B-9A42-8C30-45210BA5D9BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7185FE4A-D50F-0641-9574-A50621E264F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>year</t>
   </si>
@@ -141,6 +141,105 @@
   </si>
   <si>
     <t>lodoss_island_world_guide.jpg</t>
+  </si>
+  <si>
+    <t>stone_giant_labyrinth.jpg</t>
+  </si>
+  <si>
+    <t>石巨人の迷宮</t>
+  </si>
+  <si>
+    <t>Stone Giant Labyrinth</t>
+  </si>
+  <si>
+    <t>unicorn_quest.jpg</t>
+  </si>
+  <si>
+    <t>ユニコーンの探索</t>
+  </si>
+  <si>
+    <t>Unicorn Quest</t>
+  </si>
+  <si>
+    <t>Tower of the Four Great Wizards</t>
+  </si>
+  <si>
+    <t>tower_of_four_great_wizards.jpg</t>
+  </si>
+  <si>
+    <t>四大魔術師の塔</t>
+  </si>
+  <si>
+    <t>虹の水晶宮</t>
+  </si>
+  <si>
+    <t>Rainbow Crystal Palace</t>
+  </si>
+  <si>
+    <t>rainbow_crystal_palace.jpg</t>
+  </si>
+  <si>
+    <t>闇からの脅威</t>
+  </si>
+  <si>
+    <t>Threat from Darkness</t>
+  </si>
+  <si>
+    <t>threat_from_darkness.jpg</t>
+  </si>
+  <si>
+    <t>猫だけが知っている</t>
+  </si>
+  <si>
+    <t>Only Cats Know</t>
+  </si>
+  <si>
+    <t>only_cats_know.jpg</t>
+  </si>
+  <si>
+    <t>gates_to_another_world.jpg</t>
+  </si>
+  <si>
+    <t>異界への門</t>
+  </si>
+  <si>
+    <t>Gates to Another World</t>
+  </si>
+  <si>
+    <t>バラールの館</t>
+  </si>
+  <si>
+    <t>Ballard House</t>
+  </si>
+  <si>
+    <t>世界の果ての壁</t>
+  </si>
+  <si>
+    <t>World's End Wall</t>
+  </si>
+  <si>
+    <t>worlds_end_wall.jpg</t>
+  </si>
+  <si>
+    <t>ballard_house.jpg</t>
+  </si>
+  <si>
+    <t>forest_of_the_black_demon.jpg</t>
+  </si>
+  <si>
+    <t>黒き魔人の森</t>
+  </si>
+  <si>
+    <t>Forest of the Black Demon</t>
+  </si>
+  <si>
+    <t>city_where_devil_dances_in_the_dark.jpg</t>
+  </si>
+  <si>
+    <t>悪魔が闇に踊る街</t>
+  </si>
+  <si>
+    <t>The City Where the Devil Dances in the Dark</t>
   </si>
 </sst>
 </file>
@@ -507,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,6 +807,193 @@
         <v>35</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1989</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1989</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1990</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1991</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1991</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1992</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1993</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1993</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1995</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1997</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1997</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7185FE4A-D50F-0641-9574-A50621E264F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E100FFF6-30CC-3B48-A63D-A4CB378D32CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>year</t>
   </si>
@@ -240,6 +240,33 @@
   </si>
   <si>
     <t>The City Where the Devil Dances in the Dark</t>
+  </si>
+  <si>
+    <t>盗賊たちの狂詩曲ソード・ワールドRPGリプレイ集〈1〉</t>
+  </si>
+  <si>
+    <t>Rhapsody of Rogues: Sword World Replay 1</t>
+  </si>
+  <si>
+    <t>rhapsody_of_rogues.jpg</t>
+  </si>
+  <si>
+    <t>symphony_of_monsters.jpg</t>
+  </si>
+  <si>
+    <t>Symphony of Monsters: Sword World Replay 2</t>
+  </si>
+  <si>
+    <t>モンスターたちの交響曲ソード・ワールドRPGリプレイ集〈2〉</t>
+  </si>
+  <si>
+    <t>終わりなき即興曲ソード・ワールドRPGリプレイ集〈3〉</t>
+  </si>
+  <si>
+    <t>Endless Improvisation: Sword World Replay 3</t>
+  </si>
+  <si>
+    <t>endless_improvisation.jpg</t>
   </si>
 </sst>
 </file>
@@ -606,15 +633,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="41.1640625" customWidth="1"/>
+    <col min="2" max="2" width="60.5" customWidth="1"/>
     <col min="3" max="3" width="42.1640625" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
@@ -994,6 +1021,57 @@
         <v>66</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1989</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1990</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1991</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E100FFF6-30CC-3B48-A63D-A4CB378D32CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959EFF4A-A78E-C247-A560-876B25721843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
   <si>
     <t>year</t>
   </si>
@@ -267,6 +267,87 @@
   </si>
   <si>
     <t>endless_improvisation.jpg</t>
+  </si>
+  <si>
+    <t>regain_20_000_gamel.jpg</t>
+  </si>
+  <si>
+    <t>chaos_sorcerors_challenge.jpg</t>
+  </si>
+  <si>
+    <t>darkness_lurking_village_deceased.jpg</t>
+  </si>
+  <si>
+    <t>bablies_forever.jpg</t>
+  </si>
+  <si>
+    <t>バブリーズ・フォーエバーソード・ワールドRPGリプレイ集〈9〉</t>
+  </si>
+  <si>
+    <t>魔境の支配者ソード・ワールドRPGリプレイ集〈4〉</t>
+  </si>
+  <si>
+    <t>南海の勝利者ソード・ワールドRPGリプレイ集〈5〉</t>
+  </si>
+  <si>
+    <t>South Sea Victor: Sword World Replay 5</t>
+  </si>
+  <si>
+    <t>Makai Ruler: Sword World Replay 4</t>
+  </si>
+  <si>
+    <t>south_sea_victor.jpg</t>
+  </si>
+  <si>
+    <t>makai_ruler.jpg</t>
+  </si>
+  <si>
+    <t>Bablies Forever: Sword World Replay 9</t>
+  </si>
+  <si>
+    <t>2万ガメルを取り返せ! ソード・ワールドRPGリプレイ集</t>
+  </si>
+  <si>
+    <t>Regain 20,000 Gamel! Sword World Replay 6</t>
+  </si>
+  <si>
+    <t>混沌魔術師の挑戦―ソード・ワールドRPGリプレイ集〈7〉</t>
+  </si>
+  <si>
+    <t>Chaos Sorceror's Challenge: Sword World Replay 7</t>
+  </si>
+  <si>
+    <t>亡者の村に潜む闇ソード・ワールドRPGリプレイ集〈8〉</t>
+  </si>
+  <si>
+    <t>Darkness Lurking in the Village of the Deceased: Sword World Replay 8</t>
+  </si>
+  <si>
+    <t>leave_it_to_the_adventurer.jpg</t>
+  </si>
+  <si>
+    <t>talk_down_the_assassin.jpg</t>
+  </si>
+  <si>
+    <t>アドベンチャラーに任せとけ!―ソード・ワールドRPGリプレイ集 風雲ミラルゴ編〈2〉</t>
+  </si>
+  <si>
+    <t>Leave it to the Adventurer! Sword World Replay Collection 2</t>
+  </si>
+  <si>
+    <t>アサシンをやりこめろ!―ソード・ワールドRPGリプレイ集 風雲ミラルゴ編〈1〉</t>
+  </si>
+  <si>
+    <t>Talk Down the Assassin! Sword World Replay Collection 1</t>
+  </si>
+  <si>
+    <t>heroes_gather_at_treasure_map.jpg</t>
+  </si>
+  <si>
+    <t>宝の地図に勇者が集う―ソード・ワールドRPGリプレイ集アンマント財宝編〈1〉</t>
+  </si>
+  <si>
+    <t>Heroes Gather at the Treasure Map: Sword World Replace Collection 1</t>
   </si>
 </sst>
 </file>
@@ -633,16 +714,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A32" sqref="A32:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="60.5" customWidth="1"/>
-    <col min="3" max="3" width="42.1640625" customWidth="1"/>
+    <col min="2" max="2" width="77.6640625" customWidth="1"/>
+    <col min="3" max="3" width="65.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
   </cols>
@@ -1055,7 +1136,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1991</v>
       </c>
@@ -1070,6 +1151,159 @@
       </c>
       <c r="E25" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1992</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1993</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1994</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1994</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1995</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1995</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1996</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1996</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1997</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959EFF4A-A78E-C247-A560-876B25721843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318E471F-7EFA-9044-B12F-2BCBF8BA58FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
   <si>
     <t>year</t>
   </si>
@@ -332,9 +332,6 @@
     <t>アドベンチャラーに任せとけ!―ソード・ワールドRPGリプレイ集 風雲ミラルゴ編〈2〉</t>
   </si>
   <si>
-    <t>Leave it to the Adventurer! Sword World Replay Collection 2</t>
-  </si>
-  <si>
     <t>アサシンをやりこめろ!―ソード・ワールドRPGリプレイ集 風雲ミラルゴ編〈1〉</t>
   </si>
   <si>
@@ -347,7 +344,19 @@
     <t>宝の地図に勇者が集う―ソード・ワールドRPGリプレイ集アンマント財宝編〈1〉</t>
   </si>
   <si>
-    <t>Heroes Gather at the Treasure Map: Sword World Replace Collection 1</t>
+    <t>hero_challenges_large_labyrinth.jpg</t>
+  </si>
+  <si>
+    <t>大迷宮に勇者が挑ソード・ワールドRPGリプレイ集アンマント財宝編2</t>
+  </si>
+  <si>
+    <t>A Hero Challenges a Large Labyrinth: Sword World Replay Collection 2</t>
+  </si>
+  <si>
+    <t>Heroes Gather at the Treasure Map: Sword World Replay Collection 1</t>
+  </si>
+  <si>
+    <t>Leave It To the Adventurer: Sword World Replay Collection 2</t>
   </si>
 </sst>
 </file>
@@ -714,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD34"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1260,10 +1269,10 @@
         <v>1996</v>
       </c>
       <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
         <v>100</v>
-      </c>
-      <c r="C32" t="s">
-        <v>101</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1280,7 +1289,7 @@
         <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1294,16 +1303,33 @@
         <v>1997</v>
       </c>
       <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1998</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
         <v>103</v>
-      </c>
-      <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318E471F-7EFA-9044-B12F-2BCBF8BA58FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DE5806-5F58-324E-819F-BF7F165A01DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
   <si>
     <t>year</t>
   </si>
@@ -132,15 +132,6 @@
   </si>
   <si>
     <t>western_countries_world_guide.jpg</t>
-  </si>
-  <si>
-    <t>ロードス島ワールドガイド―ソード</t>
-  </si>
-  <si>
-    <t>Lodoss Island World Guide</t>
-  </si>
-  <si>
-    <t>lodoss_island_world_guide.jpg</t>
   </si>
   <si>
     <t>stone_giant_labyrinth.jpg</t>
@@ -723,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -909,19 +900,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -943,36 +934,36 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -994,7 +985,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
@@ -1011,19 +1002,19 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1031,50 +1022,50 @@
         <v>1993</v>
       </c>
       <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
         <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
         <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1096,27 +1087,27 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
         <v>67</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
         <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
         <v>70</v>
@@ -1125,15 +1116,15 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
         <v>73</v>
@@ -1142,58 +1133,58 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1201,33 +1192,33 @@
         <v>1994</v>
       </c>
       <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
         <v>90</v>
       </c>
-      <c r="C28" t="s">
-        <v>91</v>
-      </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
       </c>
-      <c r="C29" t="s">
-        <v>93</v>
-      </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1235,33 +1226,33 @@
         <v>1995</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1269,67 +1260,50 @@
         <v>1996</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
         <v>98</v>
-      </c>
-      <c r="C33" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
         <v>102</v>
       </c>
-      <c r="C34" t="s">
-        <v>106</v>
-      </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1998</v>
-      </c>
-      <c r="B35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DE5806-5F58-324E-819F-BF7F165A01DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7D4DB6-75A5-A447-86F1-00992A6FA41A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t>year</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>Leave It To the Adventurer: Sword World Replay Collection 2</t>
+  </si>
+  <si>
+    <t>sword_world_world_guide_alt.jpg</t>
   </si>
 </sst>
 </file>
@@ -714,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,36 +886,36 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1989</v>
+        <v>1996</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -920,50 +923,50 @@
         <v>1989</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -971,50 +974,50 @@
         <v>1991</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1022,50 +1025,50 @@
         <v>1993</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1073,118 +1076,118 @@
         <v>1997</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1989</v>
+        <v>1997</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
+        <v>1989</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>1990</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="25" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>1991</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1992</v>
-      </c>
-      <c r="B25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1192,33 +1195,33 @@
         <v>1994</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1226,33 +1229,33 @@
         <v>1995</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1260,49 +1263,66 @@
         <v>1996</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
+        <v>1997</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>1998</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>101</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>102</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
         <v>100</v>
       </c>
     </row>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7D4DB6-75A5-A447-86F1-00992A6FA41A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C54C7C-9D34-9F40-BE8E-2669E294CF59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
   <si>
     <t>year</t>
   </si>
@@ -351,6 +351,21 @@
   </si>
   <si>
     <t>sword_world_world_guide_alt.jpg</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>rulebook</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>scenario</t>
   </si>
 </sst>
 </file>
@@ -717,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,10 +743,11 @@
     <col min="2" max="2" width="77.6640625" customWidth="1"/>
     <col min="3" max="3" width="65.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,8 +763,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1989</v>
       </c>
@@ -764,8 +783,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1990</v>
       </c>
@@ -781,8 +803,11 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1990</v>
       </c>
@@ -798,8 +823,11 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1996</v>
       </c>
@@ -815,8 +843,11 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1996</v>
       </c>
@@ -832,8 +863,11 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1997</v>
       </c>
@@ -849,8 +883,11 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2004</v>
       </c>
@@ -866,8 +903,11 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1993</v>
       </c>
@@ -883,8 +923,11 @@
       <c r="E9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1993</v>
       </c>
@@ -900,8 +943,11 @@
       <c r="E10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1996</v>
       </c>
@@ -917,8 +963,11 @@
       <c r="E11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1989</v>
       </c>
@@ -934,8 +983,11 @@
       <c r="E12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1989</v>
       </c>
@@ -951,8 +1003,11 @@
       <c r="E13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1990</v>
       </c>
@@ -968,8 +1023,11 @@
       <c r="E14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1991</v>
       </c>
@@ -985,8 +1043,11 @@
       <c r="E15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1991</v>
       </c>
@@ -1002,8 +1063,11 @@
       <c r="E16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1992</v>
       </c>
@@ -1019,8 +1083,11 @@
       <c r="E17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1993</v>
       </c>
@@ -1036,8 +1103,11 @@
       <c r="E18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1993</v>
       </c>
@@ -1053,8 +1123,11 @@
       <c r="E19" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1995</v>
       </c>
@@ -1070,8 +1143,11 @@
       <c r="E20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1997</v>
       </c>
@@ -1087,8 +1163,11 @@
       <c r="E21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1997</v>
       </c>
@@ -1104,8 +1183,11 @@
       <c r="E22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1989</v>
       </c>
@@ -1121,8 +1203,11 @@
       <c r="E23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1990</v>
       </c>
@@ -1138,8 +1223,11 @@
       <c r="E24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1991</v>
       </c>
@@ -1155,8 +1243,11 @@
       <c r="E25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1992</v>
       </c>
@@ -1172,8 +1263,11 @@
       <c r="E26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1993</v>
       </c>
@@ -1189,8 +1283,11 @@
       <c r="E27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1994</v>
       </c>
@@ -1206,8 +1303,11 @@
       <c r="E28" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1994</v>
       </c>
@@ -1223,8 +1323,11 @@
       <c r="E29" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1995</v>
       </c>
@@ -1240,8 +1343,11 @@
       <c r="E30" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1995</v>
       </c>
@@ -1257,8 +1363,11 @@
       <c r="E31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1996</v>
       </c>
@@ -1274,8 +1383,11 @@
       <c r="E32" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1996</v>
       </c>
@@ -1291,8 +1403,11 @@
       <c r="E33" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1997</v>
       </c>
@@ -1308,8 +1423,11 @@
       <c r="E34" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1998</v>
       </c>
@@ -1324,6 +1442,9 @@
       </c>
       <c r="E35" t="s">
         <v>100</v>
+      </c>
+      <c r="F35" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C54C7C-9D34-9F40-BE8E-2669E294CF59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F0D09655-F7C2-764C-BEA8-375115A035C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="128">
   <si>
     <t>year</t>
   </si>
@@ -366,6 +366,57 @@
   </si>
   <si>
     <t>scenario</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>6-10</t>
+  </si>
+  <si>
+    <t>6-11</t>
+  </si>
+  <si>
+    <t>6-13</t>
+  </si>
+  <si>
+    <t>6-15</t>
+  </si>
+  <si>
+    <t>6-20</t>
+  </si>
+  <si>
+    <t>6-27</t>
+  </si>
+  <si>
+    <t>6-28</t>
+  </si>
+  <si>
+    <t>6-35</t>
   </si>
 </sst>
 </file>
@@ -415,9 +466,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -747,7 +799,7 @@
     <col min="6" max="6" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,8 +818,11 @@
       <c r="F1" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1989</v>
       </c>
@@ -786,8 +841,11 @@
       <c r="F2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1990</v>
       </c>
@@ -806,8 +864,11 @@
       <c r="F3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1990</v>
       </c>
@@ -826,8 +887,11 @@
       <c r="F4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1996</v>
       </c>
@@ -846,8 +910,11 @@
       <c r="F5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1996</v>
       </c>
@@ -866,8 +933,9 @@
       <c r="F6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1997</v>
       </c>
@@ -886,8 +954,11 @@
       <c r="F7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2004</v>
       </c>
@@ -906,8 +977,9 @@
       <c r="F8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1993</v>
       </c>
@@ -926,8 +998,9 @@
       <c r="F9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1993</v>
       </c>
@@ -946,8 +1019,9 @@
       <c r="F10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1996</v>
       </c>
@@ -966,8 +1040,9 @@
       <c r="F11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1989</v>
       </c>
@@ -986,8 +1061,11 @@
       <c r="F12" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1989</v>
       </c>
@@ -1006,8 +1084,11 @@
       <c r="F13" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1990</v>
       </c>
@@ -1026,8 +1107,11 @@
       <c r="F14" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1991</v>
       </c>
@@ -1046,8 +1130,11 @@
       <c r="F15" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1991</v>
       </c>
@@ -1066,8 +1153,11 @@
       <c r="F16" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1992</v>
       </c>
@@ -1086,8 +1176,11 @@
       <c r="F17" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1993</v>
       </c>
@@ -1106,8 +1199,11 @@
       <c r="F18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1993</v>
       </c>
@@ -1126,8 +1222,9 @@
       <c r="F19" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1995</v>
       </c>
@@ -1146,8 +1243,11 @@
       <c r="F20" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1997</v>
       </c>
@@ -1166,8 +1266,11 @@
       <c r="F21" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1997</v>
       </c>
@@ -1186,8 +1289,9 @@
       <c r="F22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1989</v>
       </c>
@@ -1206,8 +1310,11 @@
       <c r="F23" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1990</v>
       </c>
@@ -1226,8 +1333,11 @@
       <c r="F24" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1991</v>
       </c>
@@ -1246,8 +1356,11 @@
       <c r="F25" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1992</v>
       </c>
@@ -1266,8 +1379,9 @@
       <c r="F26" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1993</v>
       </c>
@@ -1286,8 +1400,9 @@
       <c r="F27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1994</v>
       </c>
@@ -1306,8 +1421,9 @@
       <c r="F28" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1994</v>
       </c>
@@ -1326,8 +1442,9 @@
       <c r="F29" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1995</v>
       </c>
@@ -1346,8 +1463,9 @@
       <c r="F30" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1995</v>
       </c>
@@ -1366,8 +1484,9 @@
       <c r="F31" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1996</v>
       </c>
@@ -1386,8 +1505,9 @@
       <c r="F32" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1996</v>
       </c>
@@ -1406,8 +1526,9 @@
       <c r="F33" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1997</v>
       </c>
@@ -1426,8 +1547,9 @@
       <c r="F34" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1998</v>
       </c>
@@ -1446,6 +1568,7 @@
       <c r="F35" t="s">
         <v>108</v>
       </c>
+      <c r="G35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F0D09655-F7C2-764C-BEA8-375115A035C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{32C9DE66-7720-9D43-B16D-3BB468EAE61F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="164">
   <si>
     <t>year</t>
   </si>
@@ -417,6 +417,114 @@
   </si>
   <si>
     <t>6-35</t>
+  </si>
+  <si>
+    <t>rhapsody_of_rogues_2006.jpg</t>
+  </si>
+  <si>
+    <t>symphony_of_monsters_2006.jpg</t>
+  </si>
+  <si>
+    <t>endless_improvisation_2006.jpg</t>
+  </si>
+  <si>
+    <t>進め!未来の大英雄―新ソード・ワールドRPGリプレイ集〈1〉</t>
+  </si>
+  <si>
+    <t>Advance! Heros of the Future: New Sword World RPG Replay Collection 1</t>
+  </si>
+  <si>
+    <t>advance_heros_of_the_future.jpg</t>
+  </si>
+  <si>
+    <t>grab_it_tomorrows_big_victory.jpg</t>
+  </si>
+  <si>
+    <t>Grab It! Tomorrow's Big Victory: New Sword World RPG Replay Collection 2</t>
+  </si>
+  <si>
+    <t>つかめ!明日の大勝利―新ソード・ワールドRPGリプレイ集〈2〉</t>
+  </si>
+  <si>
+    <t>aim_miracle_grand_circle.jpg</t>
+  </si>
+  <si>
+    <t>目指せ!奇跡の大団円―新ソード・ワールドRPGリプレイ集〈3〉</t>
+  </si>
+  <si>
+    <t>Aim! Miracle Grand Circle: New Sword World RPG Replay Collection 3</t>
+  </si>
+  <si>
+    <t>狙え!魅惑の大出世―新ソード・ワールドRPGリプレイ集〈4〉</t>
+  </si>
+  <si>
+    <t>Aim! Enchanting Great Success: New Sword World RPG Replay Collection 4</t>
+  </si>
+  <si>
+    <t>aim_enchanting_great_success.jpg</t>
+  </si>
+  <si>
+    <t>決めろ!最後の大逆転―新ソード・ワールドRPGリプレイ集〈5〉</t>
+  </si>
+  <si>
+    <t>Decide! The Last Great Reversal: New Sword World RPG Replay Collection 5</t>
+  </si>
+  <si>
+    <t>decide_the_last_great_reversal.jpg</t>
+  </si>
+  <si>
+    <t>賭けろ!世紀の大勝負―新ソード・ワールドRPGリプレイ集〈6〉</t>
+  </si>
+  <si>
+    <t>Bet! The Great Battle of the Century: New Sword World RPG Replay Collection 6</t>
+  </si>
+  <si>
+    <t>bet_the_great_battle_of_the_century.jpg</t>
+  </si>
+  <si>
+    <t>走れ!神秘の大森林―新ソード・ワールドRPGリプレイ集〈7〉</t>
+  </si>
+  <si>
+    <t>Run! Mysterious New World: New Sword World RPG Replay Collection 7</t>
+  </si>
+  <si>
+    <t>run_mysterious_new_world.jpg</t>
+  </si>
+  <si>
+    <t>救え!かつての大親友―新ソード・ワールドRPGリプレイ集〈8〉</t>
+  </si>
+  <si>
+    <t>Save! Former Great Friend: New Sword World RPG Replay Collection 8</t>
+  </si>
+  <si>
+    <t>save_former_great_friend.jpg</t>
+  </si>
+  <si>
+    <t>挑め!捨身の大決戦―新ソード・ワールドRPGリプレイ集〈9〉</t>
+  </si>
+  <si>
+    <t>Challenge! The Great Decisive Batlte: New Sword World RPG Replay Collection 9</t>
+  </si>
+  <si>
+    <t>challenge_the_great_decisive_battle.jpg</t>
+  </si>
+  <si>
+    <t>名乗れ!今こそ大英雄―新ソード・ワールドRPGリプレイ集〈10〉</t>
+  </si>
+  <si>
+    <t>Name Yourself! The Great Hero: New Sword World RPG Replay Collection 10</t>
+  </si>
+  <si>
+    <t>name_yourself_the_great_hero.jpg</t>
+  </si>
+  <si>
+    <t>明かせ!へっぽこ大冒険―新ソード・ワールドRPGリプレイ集ガイドブック</t>
+  </si>
+  <si>
+    <t>heppoko_great_adventure.jpg</t>
+  </si>
+  <si>
+    <t>Let's Reveal! Heppoko's Great Adventure: New Sword World RPG Replay Collection Guide Book</t>
   </si>
 </sst>
 </file>
@@ -784,16 +892,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="77.6640625" customWidth="1"/>
-    <col min="3" max="3" width="65.33203125" customWidth="1"/>
+    <col min="3" max="3" width="67.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
@@ -1570,6 +1678,295 @@
       </c>
       <c r="G35" s="2"/>
     </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2006</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2006</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2006</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2001</v>
+      </c>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2001</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2002</v>
+      </c>
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2002</v>
+      </c>
+      <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2002</v>
+      </c>
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2003</v>
+      </c>
+      <c r="B44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2003</v>
+      </c>
+      <c r="B45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2004</v>
+      </c>
+      <c r="B46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2005</v>
+      </c>
+      <c r="B47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2005</v>
+      </c>
+      <c r="B48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2006</v>
+      </c>
+      <c r="B49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>162</v>
+      </c>
+      <c r="F49" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{32C9DE66-7720-9D43-B16D-3BB468EAE61F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9CAC181-AEA1-B54A-9276-CBD515F5132A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -422,9 +422,6 @@
     <t>rhapsody_of_rogues_2006.jpg</t>
   </si>
   <si>
-    <t>symphony_of_monsters_2006.jpg</t>
-  </si>
-  <si>
     <t>endless_improvisation_2006.jpg</t>
   </si>
   <si>
@@ -525,6 +522,9 @@
   </si>
   <si>
     <t>Let's Reveal! Heppoko's Great Adventure: New Sword World RPG Replay Collection Guide Book</t>
+  </si>
+  <si>
+    <t>symphony_of_monsters_2006.png</t>
   </si>
 </sst>
 </file>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1715,7 +1715,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="F37" t="s">
         <v>108</v>
@@ -1738,7 +1738,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s">
         <v>108</v>
@@ -1752,16 +1752,16 @@
         <v>2001</v>
       </c>
       <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
         <v>131</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
         <v>132</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" t="s">
-        <v>133</v>
       </c>
       <c r="F39" t="s">
         <v>108</v>
@@ -1772,16 +1772,16 @@
         <v>2001</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F40" t="s">
         <v>108</v>
@@ -1792,16 +1792,16 @@
         <v>2002</v>
       </c>
       <c r="B41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" t="s">
         <v>138</v>
       </c>
-      <c r="C41" t="s">
-        <v>139</v>
-      </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F41" t="s">
         <v>108</v>
@@ -1812,16 +1812,16 @@
         <v>2002</v>
       </c>
       <c r="B42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" t="s">
         <v>140</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
         <v>141</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="s">
-        <v>142</v>
       </c>
       <c r="F42" t="s">
         <v>108</v>
@@ -1832,16 +1832,16 @@
         <v>2002</v>
       </c>
       <c r="B43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" t="s">
         <v>143</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
         <v>144</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s">
-        <v>145</v>
       </c>
       <c r="F43" t="s">
         <v>108</v>
@@ -1852,16 +1852,16 @@
         <v>2003</v>
       </c>
       <c r="B44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" t="s">
         <v>146</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
         <v>147</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" t="s">
-        <v>148</v>
       </c>
       <c r="F44" t="s">
         <v>108</v>
@@ -1872,16 +1872,16 @@
         <v>2003</v>
       </c>
       <c r="B45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" t="s">
         <v>149</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
         <v>150</v>
-      </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" t="s">
-        <v>151</v>
       </c>
       <c r="F45" t="s">
         <v>108</v>
@@ -1892,16 +1892,16 @@
         <v>2004</v>
       </c>
       <c r="B46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" t="s">
         <v>152</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
         <v>153</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" t="s">
-        <v>154</v>
       </c>
       <c r="F46" t="s">
         <v>108</v>
@@ -1912,16 +1912,16 @@
         <v>2005</v>
       </c>
       <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" t="s">
         <v>155</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
         <v>156</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" t="s">
-        <v>157</v>
       </c>
       <c r="F47" t="s">
         <v>108</v>
@@ -1932,16 +1932,16 @@
         <v>2005</v>
       </c>
       <c r="B48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" t="s">
         <v>158</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
         <v>159</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" t="s">
-        <v>160</v>
       </c>
       <c r="F48" t="s">
         <v>108</v>
@@ -1952,16 +1952,16 @@
         <v>2006</v>
       </c>
       <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
         <v>161</v>
-      </c>
-      <c r="C49" t="s">
-        <v>163</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" t="s">
-        <v>162</v>
       </c>
       <c r="F49" t="s">
         <v>108</v>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9CAC181-AEA1-B54A-9276-CBD515F5132A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2883FF4C-630C-104D-9B91-145FC12B12C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -500,9 +500,6 @@
     <t>挑め!捨身の大決戦―新ソード・ワールドRPGリプレイ集〈9〉</t>
   </si>
   <si>
-    <t>Challenge! The Great Decisive Batlte: New Sword World RPG Replay Collection 9</t>
-  </si>
-  <si>
     <t>challenge_the_great_decisive_battle.jpg</t>
   </si>
   <si>
@@ -525,6 +522,9 @@
   </si>
   <si>
     <t>symphony_of_monsters_2006.png</t>
+  </si>
+  <si>
+    <t>Challenge! The Great Decisive Battle: New Sword World RPG Replay Collection 9</t>
   </si>
 </sst>
 </file>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1715,7 +1715,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F37" t="s">
         <v>108</v>
@@ -1915,13 +1915,13 @@
         <v>154</v>
       </c>
       <c r="C47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
         <v>155</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" t="s">
-        <v>156</v>
       </c>
       <c r="F47" t="s">
         <v>108</v>
@@ -1932,16 +1932,16 @@
         <v>2005</v>
       </c>
       <c r="B48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" t="s">
         <v>157</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
         <v>158</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" t="s">
-        <v>159</v>
       </c>
       <c r="F48" t="s">
         <v>108</v>
@@ -1952,16 +1952,16 @@
         <v>2006</v>
       </c>
       <c r="B49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
         <v>160</v>
-      </c>
-      <c r="C49" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" t="s">
-        <v>161</v>
       </c>
       <c r="F49" t="s">
         <v>108</v>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2883FF4C-630C-104D-9B91-145FC12B12C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9A4D44-16B9-8245-A376-4DDF1762C4E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="194">
   <si>
     <t>year</t>
   </si>
@@ -525,6 +525,96 @@
   </si>
   <si>
     <t>Challenge! The Great Decisive Battle: New Sword World RPG Replay Collection 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ロマール・ノワール新ソードワールドRPGリプレイ集NEXT(1) </t>
+  </si>
+  <si>
+    <t>Roman Noir: New Sword World RPG Replay Collection NEXT(1)</t>
+  </si>
+  <si>
+    <t>roman_noir.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダンジョン・パッション新ソードワールドRPGリプレイ集NEXT(2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dungeon Passion: New Sword World RPG Replay Collection NEXT(2) </t>
+  </si>
+  <si>
+    <t>dungeon_passion.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コロシアム・プレミアム新ソード・ワールドRPGリプレイ集NEXT(3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coliseum Premium: New Sword World RPG Replay Collection NEXT(3) </t>
+  </si>
+  <si>
+    <t>coliseum_premium.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファンドリア・ファンクション新ソード・ワールドRPGリプレイ集NEXT(4) </t>
+  </si>
+  <si>
+    <t>Fundria Function: New Sword World RPG Replay Collection NEXT(4)</t>
+  </si>
+  <si>
+    <t>fundria_function.jpg</t>
+  </si>
+  <si>
+    <t>トライアル・トラブル―新ソード・ワールドRPGリプレイ集NEXT〈5〉</t>
+  </si>
+  <si>
+    <t>Trial Trouble-New Sword World RPG Replay Collection NEXT &lt;5&gt;</t>
+  </si>
+  <si>
+    <t>trial_trouble.jpg</t>
+  </si>
+  <si>
+    <t>マリン・マーベル 新ソード・ワールドRPGリプレイ集NEXT(6)</t>
+  </si>
+  <si>
+    <t>Marine Marvel New Sword World RPG Replay Collection NEXT(6)</t>
+  </si>
+  <si>
+    <t>marine_marvel.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">レイド・レボルト新ソード・ワールドRPGリプレイ集NEXT(7) </t>
+  </si>
+  <si>
+    <t>Raid Rebolt: New Sword World RPG Replay Collection NEXT(7)</t>
+  </si>
+  <si>
+    <t>raid_rebolt.jpg</t>
+  </si>
+  <si>
+    <t>スカイ・ステージ―新ソード・ワールドRPGリプレイ集NEXT〈8〉</t>
+  </si>
+  <si>
+    <t>Sky Stage: New Sworld World RPG Replay Collection NEXT(8)</t>
+  </si>
+  <si>
+    <t>クリティカル・クライマックス新ソード・ワールドRPGリプレイ集NEXT9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical Climax: New Sword World RPG Replay Collection NEXT 9 </t>
+  </si>
+  <si>
+    <t>sky_stage.jpg</t>
+  </si>
+  <si>
+    <t>critical_climax.jpg</t>
+  </si>
+  <si>
+    <t>ギャンブル・ランブル―新ソード・ワールドRPGリプレイ集NEXT〈0〉</t>
+  </si>
+  <si>
+    <t>Gamble Rumble-New Sword World RPG Replay Collection NEXT &lt;0&gt;</t>
+  </si>
+  <si>
+    <t>gamble_rumble.jpg</t>
   </si>
 </sst>
 </file>
@@ -892,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1967,6 +2057,206 @@
         <v>108</v>
       </c>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2004</v>
+      </c>
+      <c r="B50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>166</v>
+      </c>
+      <c r="F50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2004</v>
+      </c>
+      <c r="B51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2005</v>
+      </c>
+      <c r="B52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2005</v>
+      </c>
+      <c r="B53" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>175</v>
+      </c>
+      <c r="F53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2005</v>
+      </c>
+      <c r="B54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2006</v>
+      </c>
+      <c r="B55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>181</v>
+      </c>
+      <c r="F55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2006</v>
+      </c>
+      <c r="B56" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2006</v>
+      </c>
+      <c r="B57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>189</v>
+      </c>
+      <c r="F57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2007</v>
+      </c>
+      <c r="B58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>190</v>
+      </c>
+      <c r="F58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2007</v>
+      </c>
+      <c r="B59" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9A4D44-16B9-8245-A376-4DDF1762C4E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530CAA51-CDC9-D741-BCFD-89DA8FA255D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="221">
   <si>
     <t>year</t>
   </si>
@@ -615,6 +615,87 @@
   </si>
   <si>
     <t>gamble_rumble.jpg</t>
+  </si>
+  <si>
+    <t>猫の手冒険隊、集結!―ソード・ワールドRPGリプレイ集×S〈1〉</t>
+  </si>
+  <si>
+    <t>Cat's Hand Adventure Corps, Gathering!-Sword World RPG Replay Collection x S &lt;1&gt;</t>
+  </si>
+  <si>
+    <t>cats_hand_adventure.jpg</t>
+  </si>
+  <si>
+    <t>猫の手勇者くん、突撃!―ソード・ワールドRPGリプレイ集×S〈2〉</t>
+  </si>
+  <si>
+    <t>Cat brave man, assault!-Sword World RPG replay collection × S &lt;2&gt;</t>
+  </si>
+  <si>
+    <t>cat_brave_man_assault.jpg</t>
+  </si>
+  <si>
+    <t>猫の手お気楽娘、幻惑?―ソード・ワールドRPGリプレイ集xS〈3〉</t>
+  </si>
+  <si>
+    <t>Cat's Hand Easy Girl, Illusion?-Sword World RPG Replay Collection xS &lt;3&gt;</t>
+  </si>
+  <si>
+    <t>cats_easy_hand_girl.jpg</t>
+  </si>
+  <si>
+    <t>猫の手超人王、激闘!―ソード・ワールドRPGリプレイ集XS〈4〉</t>
+  </si>
+  <si>
+    <t>Cat's Hand, Super King, Fierce Fight!-Sword World RPG Replay Collection XS &lt;4&gt;</t>
+  </si>
+  <si>
+    <t>cats_hand_super_king.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新ソード・ワールドRPGリプレイ集Waltz〈1〉旅立ち・お祭り・子供たち </t>
+  </si>
+  <si>
+    <t>New Sword World RPG Replay Collection Waltz &lt;1&gt; Departure/Festival/Children</t>
+  </si>
+  <si>
+    <t>departure_festival_children.jpg</t>
+  </si>
+  <si>
+    <t>新ソード・ワールドRPGリプレイ集Waltz〈2〉競争・怪盗・大湿原</t>
+  </si>
+  <si>
+    <t>New Sword World RPG Replay Collection Waltz &lt;2&gt; Competition / Kaito / Great Marsh</t>
+  </si>
+  <si>
+    <t>competition_kaito_great_marsh.jpg</t>
+  </si>
+  <si>
+    <t>新ソード・ワールドRPGリプレイ集Waltz〈3〉駆け込み・災厄・学者サマ</t>
+  </si>
+  <si>
+    <t>New Sword World RPG Replay Collection Waltz &lt;3&gt; rush, disaster, scholar Sama</t>
+  </si>
+  <si>
+    <t>rush_disaster_scholar_sama.jpg</t>
+  </si>
+  <si>
+    <t>新ソード・ワールドRPGリプレイ集Waltz〈4〉誘拐・ヤキモチ・すれ違い</t>
+  </si>
+  <si>
+    <t>New Sword World RPG Replay Collection Waltz &lt;4&gt; Kidnapping, Yakimochi, Passing each other</t>
+  </si>
+  <si>
+    <t>kidnapping_yakimochi.jpg</t>
+  </si>
+  <si>
+    <t>新ソード・ワールドRPGリプレイ集Waltz5　誓い・陰謀・巣立ちの日</t>
+  </si>
+  <si>
+    <t>New Sword World RPG Replay Collection Waltz 5 Oath, Conspiracy, Leaving Day</t>
+  </si>
+  <si>
+    <t>oath_conspiracy.jpg</t>
   </si>
 </sst>
 </file>
@@ -652,9 +733,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -664,10 +754,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2257,6 +2349,186 @@
         <v>108</v>
       </c>
     </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2006</v>
+      </c>
+      <c r="B60" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2007</v>
+      </c>
+      <c r="B61" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2007</v>
+      </c>
+      <c r="B62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>202</v>
+      </c>
+      <c r="F62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2008</v>
+      </c>
+      <c r="B63" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2006</v>
+      </c>
+      <c r="B64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>208</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2007</v>
+      </c>
+      <c r="B65" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>211</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2007</v>
+      </c>
+      <c r="B66" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>214</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2007</v>
+      </c>
+      <c r="B67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" t="s">
+        <v>216</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>217</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2008</v>
+      </c>
+      <c r="B68" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>220</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530CAA51-CDC9-D741-BCFD-89DA8FA255D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AC7937-B0FA-D642-BB2C-B4A2C9A3E96C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="253">
   <si>
     <t>year</t>
   </si>
@@ -696,6 +696,102 @@
   </si>
   <si>
     <t>oath_conspiracy.jpg</t>
+  </si>
+  <si>
+    <t>6-45</t>
+  </si>
+  <si>
+    <t>6-46</t>
+  </si>
+  <si>
+    <t>6-47</t>
+  </si>
+  <si>
+    <t>6-48</t>
+  </si>
+  <si>
+    <t>6-53</t>
+  </si>
+  <si>
+    <t>6-54</t>
+  </si>
+  <si>
+    <t>6-56</t>
+  </si>
+  <si>
+    <t>6-57</t>
+  </si>
+  <si>
+    <t>6-58</t>
+  </si>
+  <si>
+    <t>6-59</t>
+  </si>
+  <si>
+    <t>6-62</t>
+  </si>
+  <si>
+    <t>6-64</t>
+  </si>
+  <si>
+    <t>6-66</t>
+  </si>
+  <si>
+    <t>6-67</t>
+  </si>
+  <si>
+    <t>6-72</t>
+  </si>
+  <si>
+    <t>6-73</t>
+  </si>
+  <si>
+    <t>ベルダイン熱狂!―ソード・ワールドRPGアドベンチャー〈1〉</t>
+  </si>
+  <si>
+    <t>Beldyne Enthusiasm!-Sword World RPG Adventure &lt;1&gt;</t>
+  </si>
+  <si>
+    <t>beldyne_enthusiasm.jpg</t>
+  </si>
+  <si>
+    <t>ソード・ワールドRPGアドベンチャー〈2〉アルバトロス追撃</t>
+  </si>
+  <si>
+    <t>Sword World RPG Adventure &lt;2&gt; Albatross Pursuit</t>
+  </si>
+  <si>
+    <t>タイデル騒乱!―ソード・ワールドRPGアドベンチャー〈3〉</t>
+  </si>
+  <si>
+    <t>Tyder Mayhem!-Sword World RPG Adventure &lt;3&gt;</t>
+  </si>
+  <si>
+    <t>albatross_pursuit.jpg</t>
+  </si>
+  <si>
+    <t>tyder_mayhem.jpg</t>
+  </si>
+  <si>
+    <t>プロミジー急転!―ソード・ワールドRPGアドベンチャー〈4〉</t>
+  </si>
+  <si>
+    <t>Promygy sudden turn!-Sword World RPG Adventure &lt;4&gt;</t>
+  </si>
+  <si>
+    <t>promygy_sudden_turn.jpg</t>
+  </si>
+  <si>
+    <t>ナイトブレイカーズ爆発!―ソード・ワールドRPGアドベンチャー〈5〉</t>
+  </si>
+  <si>
+    <t>Night Breakers Explosion!-Sword World RPG Adventure &lt;5&gt;</t>
+  </si>
+  <si>
+    <t>night_breakers_explosion.jpg</t>
+  </si>
+  <si>
+    <t>novel</t>
   </si>
 </sst>
 </file>
@@ -754,12 +850,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,19 +1171,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="77.6640625" customWidth="1"/>
+    <col min="2" max="2" width="77.33203125" customWidth="1"/>
     <col min="3" max="3" width="67.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1108,7 +1206,7 @@
       <c r="F1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1223,7 +1321,6 @@
       <c r="F6" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1267,7 +1364,6 @@
       <c r="F8" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1288,7 +1384,6 @@
       <c r="F9" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1309,7 +1404,6 @@
       <c r="F10" t="s">
         <v>109</v>
       </c>
-      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1330,7 +1424,6 @@
       <c r="F11" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1512,7 +1605,6 @@
       <c r="F19" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1579,7 +1671,6 @@
       <c r="F22" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -1669,7 +1760,6 @@
       <c r="F26" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -1690,7 +1780,6 @@
       <c r="F27" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -1711,7 +1800,6 @@
       <c r="F28" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -1732,7 +1820,6 @@
       <c r="F29" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -1753,7 +1840,6 @@
       <c r="F30" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -1774,7 +1860,6 @@
       <c r="F31" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -1795,7 +1880,6 @@
       <c r="F32" t="s">
         <v>108</v>
       </c>
-      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -1816,7 +1900,6 @@
       <c r="F33" t="s">
         <v>108</v>
       </c>
-      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -1837,7 +1920,6 @@
       <c r="F34" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -1858,7 +1940,6 @@
       <c r="F35" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -1968,6 +2049,9 @@
       <c r="F40" t="s">
         <v>108</v>
       </c>
+      <c r="G40" s="2" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -1988,6 +2072,9 @@
       <c r="F41" t="s">
         <v>108</v>
       </c>
+      <c r="G41" s="2" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -2008,6 +2095,9 @@
       <c r="F42" t="s">
         <v>108</v>
       </c>
+      <c r="G42" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -2028,6 +2118,9 @@
       <c r="F43" t="s">
         <v>108</v>
       </c>
+      <c r="G43" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -2048,6 +2141,9 @@
       <c r="F44" t="s">
         <v>108</v>
       </c>
+      <c r="G44" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -2068,6 +2164,9 @@
       <c r="F45" t="s">
         <v>108</v>
       </c>
+      <c r="G45" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -2088,6 +2187,9 @@
       <c r="F46" t="s">
         <v>108</v>
       </c>
+      <c r="G46" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -2108,6 +2210,9 @@
       <c r="F47" t="s">
         <v>108</v>
       </c>
+      <c r="G47" s="2" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -2129,7 +2234,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2006</v>
       </c>
@@ -2149,7 +2254,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2004</v>
       </c>
@@ -2168,8 +2273,11 @@
       <c r="F50" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2004</v>
       </c>
@@ -2188,8 +2296,11 @@
       <c r="F51" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2005</v>
       </c>
@@ -2209,7 +2320,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2005</v>
       </c>
@@ -2228,8 +2339,11 @@
       <c r="F53" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2005</v>
       </c>
@@ -2248,8 +2362,11 @@
       <c r="F54" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2006</v>
       </c>
@@ -2268,8 +2385,11 @@
       <c r="F55" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2006</v>
       </c>
@@ -2288,8 +2408,11 @@
       <c r="F56" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2006</v>
       </c>
@@ -2308,8 +2431,11 @@
       <c r="F57" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2007</v>
       </c>
@@ -2328,8 +2454,11 @@
       <c r="F58" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2007</v>
       </c>
@@ -2349,7 +2478,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2006</v>
       </c>
@@ -2369,7 +2498,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2007</v>
       </c>
@@ -2389,7 +2518,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2007</v>
       </c>
@@ -2409,7 +2538,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2008</v>
       </c>
@@ -2429,7 +2558,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2006</v>
       </c>
@@ -2527,6 +2656,106 @@
       </c>
       <c r="F68" s="4" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1994</v>
+      </c>
+      <c r="B69" t="s">
+        <v>237</v>
+      </c>
+      <c r="C69" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>239</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1995</v>
+      </c>
+      <c r="B70" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" t="s">
+        <v>241</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>244</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1996</v>
+      </c>
+      <c r="B71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" t="s">
+        <v>243</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>245</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1996</v>
+      </c>
+      <c r="B72" t="s">
+        <v>246</v>
+      </c>
+      <c r="C72" t="s">
+        <v>247</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>248</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1997</v>
+      </c>
+      <c r="B73" t="s">
+        <v>249</v>
+      </c>
+      <c r="C73" t="s">
+        <v>250</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>251</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AC7937-B0FA-D642-BB2C-B4A2C9A3E96C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A9B8CF-53C1-A641-97F6-F365B60542F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="262">
   <si>
     <t>year</t>
   </si>
@@ -792,6 +792,33 @@
   </si>
   <si>
     <t>novel</t>
+  </si>
+  <si>
+    <t>帰ってきたドラゴン―西部諸国シアター〈1〉</t>
+  </si>
+  <si>
+    <t>Returning Dragon-Western Countries Theater &lt;1&gt;</t>
+  </si>
+  <si>
+    <t>returning_dragon.png</t>
+  </si>
+  <si>
+    <t>熱血爆風!プリンセス―西部諸国シアター〈2〉</t>
+  </si>
+  <si>
+    <t>hot_blood_blast.jpg</t>
+  </si>
+  <si>
+    <t>Hot Blood Blast! Princess-Western Theater &lt;2&gt;</t>
+  </si>
+  <si>
+    <t>鏡の国の戦争―西部諸国シアター〈3〉</t>
+  </si>
+  <si>
+    <t>Mirror country war-Western countries theater &lt;3&gt;</t>
+  </si>
+  <si>
+    <t>mirror_country_war.jpg</t>
   </si>
 </sst>
 </file>
@@ -1171,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2758,6 +2785,66 @@
         <v>252</v>
       </c>
     </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1997</v>
+      </c>
+      <c r="B74" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
+        <v>255</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1998</v>
+      </c>
+      <c r="B75" t="s">
+        <v>256</v>
+      </c>
+      <c r="C75" t="s">
+        <v>258</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>257</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1998</v>
+      </c>
+      <c r="B76" t="s">
+        <v>259</v>
+      </c>
+      <c r="C76" t="s">
+        <v>260</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>261</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A9B8CF-53C1-A641-97F6-F365B60542F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1209EFDF-F194-C643-9E71-228D6BA85917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -788,9 +788,6 @@
     <t>Night Breakers Explosion!-Sword World RPG Adventure &lt;5&gt;</t>
   </si>
   <si>
-    <t>night_breakers_explosion.jpg</t>
-  </si>
-  <si>
     <t>novel</t>
   </si>
   <si>
@@ -819,6 +816,9 @@
   </si>
   <si>
     <t>mirror_country_war.jpg</t>
+  </si>
+  <si>
+    <t>night_breakers_explosion.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2702,7 +2702,7 @@
         <v>239</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2722,7 +2722,7 @@
         <v>244</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2742,7 +2742,7 @@
         <v>245</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2762,7 +2762,7 @@
         <v>248</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2779,10 +2779,10 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
+        <v>261</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2790,19 +2790,19 @@
         <v>1997</v>
       </c>
       <c r="B74" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" t="s">
         <v>253</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
         <v>254</v>
       </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" t="s">
-        <v>255</v>
-      </c>
       <c r="F74" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2810,19 +2810,19 @@
         <v>1998</v>
       </c>
       <c r="B75" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" t="s">
+        <v>257</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
         <v>256</v>
       </c>
-      <c r="C75" t="s">
-        <v>258</v>
-      </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" t="s">
-        <v>257</v>
-      </c>
       <c r="F75" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2830,19 +2830,19 @@
         <v>1998</v>
       </c>
       <c r="B76" t="s">
+        <v>258</v>
+      </c>
+      <c r="C76" t="s">
         <v>259</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
         <v>260</v>
       </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" t="s">
-        <v>261</v>
-      </c>
       <c r="F76" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1209EFDF-F194-C643-9E71-228D6BA85917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B77E3C3-3F47-1849-A746-12E834FEBD75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="302">
   <si>
     <t>year</t>
   </si>
@@ -755,9 +755,6 @@
     <t>beldyne_enthusiasm.jpg</t>
   </si>
   <si>
-    <t>ソード・ワールドRPGアドベンチャー〈2〉アルバトロス追撃</t>
-  </si>
-  <si>
     <t>Sword World RPG Adventure &lt;2&gt; Albatross Pursuit</t>
   </si>
   <si>
@@ -819,6 +816,129 @@
   </si>
   <si>
     <t>night_breakers_explosion.jpeg</t>
+  </si>
+  <si>
+    <t>6-61</t>
+  </si>
+  <si>
+    <t>6-65</t>
+  </si>
+  <si>
+    <t>ソード・ワールドRPGリプレイ・アンソロジー デーモン・アゲイン</t>
+  </si>
+  <si>
+    <t>6-63</t>
+  </si>
+  <si>
+    <t>賽子(ダイス)の国の魔法戦士―ソード・ワールドRPGリプレイ・アンソロジー〈2〉</t>
+  </si>
+  <si>
+    <t>6-76</t>
+  </si>
+  <si>
+    <t>6-77</t>
+  </si>
+  <si>
+    <t>6-78</t>
+  </si>
+  <si>
+    <t>6-44</t>
+  </si>
+  <si>
+    <t>6-60</t>
+  </si>
+  <si>
+    <t>6-82</t>
+  </si>
+  <si>
+    <t>6-83</t>
+  </si>
+  <si>
+    <t>6-84</t>
+  </si>
+  <si>
+    <t>6-85</t>
+  </si>
+  <si>
+    <t>6-18</t>
+  </si>
+  <si>
+    <t>6-22</t>
+  </si>
+  <si>
+    <t>6-25</t>
+  </si>
+  <si>
+    <t>アルバトロス追撃 ソード・ワールドRPGアドベンチャー〈2〉</t>
+  </si>
+  <si>
+    <t>6-30</t>
+  </si>
+  <si>
+    <t>6-33</t>
+  </si>
+  <si>
+    <t>6-37</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>6-12</t>
+  </si>
+  <si>
+    <t>6-14</t>
+  </si>
+  <si>
+    <t>6-16</t>
+  </si>
+  <si>
+    <t>6-55</t>
+  </si>
+  <si>
+    <t>6-71</t>
+  </si>
+  <si>
+    <t>6-75</t>
+  </si>
+  <si>
+    <t>モンスターたちの交響曲(シンフォニー)―ソード・ワールドRPGリプレイ集スチャラカ編〈2〉</t>
+  </si>
+  <si>
+    <t>盗賊たちの狂詩曲(ラプソディ)―ソード・ワールドRPGリプレイ集スチャラカ編(1)</t>
+  </si>
+  <si>
+    <t>終わりなき即興曲(トッカータ)―ソード・ワールドRPGリプレイ集スチャラカ編 (3)</t>
+  </si>
+  <si>
+    <t>6-68</t>
+  </si>
+  <si>
+    <t>6-69</t>
+  </si>
+  <si>
+    <t>6-70</t>
+  </si>
+  <si>
+    <t>Rhapsody of Bandits (Rhapsody)-Sword World RPG Replay Collection Scharaka (1)</t>
+  </si>
+  <si>
+    <t>Symphony of Monsters (Symphony)-Sword World RPG Replay Collection Scharaka Hen &lt;2&gt;</t>
+  </si>
+  <si>
+    <t>Endless Improvisations (Toccata)-Sword World RPG Replays by Scharaka (3)</t>
+  </si>
+  <si>
+    <t>Sword World RPG Replay Anthology Demon Again</t>
+  </si>
+  <si>
+    <t>Magic Warrior of the Country of Said (Dice)-Sword World RPG Replay Anthology &lt;2&gt;</t>
+  </si>
+  <si>
+    <t>demon_again.jpg</t>
+  </si>
+  <si>
+    <t>magic_warrior_of_the_country_said.jpg</t>
   </si>
 </sst>
 </file>
@@ -1198,15 +1318,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="77.33203125" customWidth="1"/>
+    <col min="2" max="2" width="77.1640625" customWidth="1"/>
     <col min="3" max="3" width="67.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -1303,7 +1423,7 @@
         <v>109</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1391,6 +1511,9 @@
       <c r="F8" t="s">
         <v>107</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1632,6 +1755,9 @@
       <c r="F19" t="s">
         <v>110</v>
       </c>
+      <c r="G19" s="2" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1787,6 +1913,9 @@
       <c r="F26" t="s">
         <v>108</v>
       </c>
+      <c r="G26" s="2" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -1807,6 +1936,9 @@
       <c r="F27" t="s">
         <v>108</v>
       </c>
+      <c r="G27" s="2" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -1970,7 +2102,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2006</v>
+        <v>1989</v>
       </c>
       <c r="B36" t="s">
         <v>66</v>
@@ -1982,7 +2114,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
         <v>108</v>
@@ -1993,7 +2125,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
@@ -2016,7 +2148,7 @@
     </row>
     <row r="38" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2006</v>
+        <v>1991</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
@@ -2056,6 +2188,9 @@
       <c r="F39" t="s">
         <v>108</v>
       </c>
+      <c r="G39" s="2" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -2260,6 +2395,9 @@
       <c r="F48" t="s">
         <v>108</v>
       </c>
+      <c r="G48" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -2280,6 +2418,9 @@
       <c r="F49" t="s">
         <v>108</v>
       </c>
+      <c r="G49" s="2" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -2346,6 +2487,9 @@
       <c r="F52" t="s">
         <v>108</v>
       </c>
+      <c r="G52" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
@@ -2504,6 +2648,9 @@
       <c r="F59" t="s">
         <v>108</v>
       </c>
+      <c r="G59" s="2" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -2524,6 +2671,9 @@
       <c r="F60" t="s">
         <v>108</v>
       </c>
+      <c r="G60" s="2" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -2544,6 +2694,9 @@
       <c r="F61" t="s">
         <v>108</v>
       </c>
+      <c r="G61" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -2564,6 +2717,9 @@
       <c r="F62" t="s">
         <v>108</v>
       </c>
+      <c r="G62" s="2" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -2584,6 +2740,9 @@
       <c r="F63" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="G63" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -2605,7 +2764,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2007</v>
       </c>
@@ -2624,8 +2783,11 @@
       <c r="F65" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2007</v>
       </c>
@@ -2644,8 +2806,11 @@
       <c r="F66" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2007</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="F67" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2008</v>
       </c>
@@ -2684,8 +2852,11 @@
       <c r="F68" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1994</v>
       </c>
@@ -2702,147 +2873,280 @@
         <v>239</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1995</v>
       </c>
       <c r="B70" t="s">
+        <v>278</v>
+      </c>
+      <c r="C70" t="s">
         <v>240</v>
       </c>
-      <c r="C70" t="s">
-        <v>241</v>
-      </c>
       <c r="D70" t="s">
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1996</v>
       </c>
       <c r="B71" t="s">
+        <v>241</v>
+      </c>
+      <c r="C71" t="s">
         <v>242</v>
       </c>
-      <c r="C71" t="s">
-        <v>243</v>
-      </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1996</v>
       </c>
       <c r="B72" t="s">
+        <v>245</v>
+      </c>
+      <c r="C72" t="s">
         <v>246</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
         <v>247</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" t="s">
-        <v>248</v>
-      </c>
       <c r="F72" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1997</v>
       </c>
       <c r="B73" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" t="s">
         <v>249</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>260</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" t="s">
-        <v>261</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1997</v>
       </c>
       <c r="B74" t="s">
+        <v>251</v>
+      </c>
+      <c r="C74" t="s">
         <v>252</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
         <v>253</v>
       </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" t="s">
-        <v>254</v>
-      </c>
       <c r="F74" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1998</v>
       </c>
       <c r="B75" t="s">
+        <v>254</v>
+      </c>
+      <c r="C75" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
         <v>255</v>
       </c>
-      <c r="C75" t="s">
-        <v>257</v>
-      </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" t="s">
-        <v>256</v>
-      </c>
       <c r="F75" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1998</v>
       </c>
       <c r="B76" t="s">
+        <v>257</v>
+      </c>
+      <c r="C76" t="s">
         <v>258</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
         <v>259</v>
       </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" t="s">
-        <v>260</v>
-      </c>
       <c r="F76" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2005</v>
+      </c>
+      <c r="B77" t="s">
+        <v>263</v>
+      </c>
+      <c r="C77" t="s">
+        <v>298</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>300</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2007</v>
+      </c>
+      <c r="B78" t="s">
+        <v>265</v>
+      </c>
+      <c r="C78" t="s">
+        <v>299</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>301</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2006</v>
+      </c>
+      <c r="B79" t="s">
+        <v>290</v>
+      </c>
+      <c r="C79" t="s">
+        <v>295</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>128</v>
+      </c>
+      <c r="F79" t="s">
+        <v>108</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2006</v>
+      </c>
+      <c r="B80" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" t="s">
+        <v>296</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>162</v>
+      </c>
+      <c r="F80" t="s">
+        <v>108</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2006</v>
+      </c>
+      <c r="B81" t="s">
+        <v>291</v>
+      </c>
+      <c r="C81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>129</v>
+      </c>
+      <c r="F81" t="s">
+        <v>108</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B77E3C3-3F47-1849-A746-12E834FEBD75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E3D299-4F96-D045-BE67-38458050CA7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -938,7 +938,7 @@
     <t>demon_again.jpg</t>
   </si>
   <si>
-    <t>magic_warrior_of_the_country_said.jpg</t>
+    <t>magic_warrior_of_the_country_said.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1321,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E3D299-4F96-D045-BE67-38458050CA7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C9E810-1FA6-E742-83AE-806F578FA62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="302">
   <si>
     <t>year</t>
   </si>
@@ -1318,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2102,485 +2102,485 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1989</v>
+        <v>2001</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="F36" t="s">
         <v>108</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>115</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="F37" t="s">
         <v>108</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F38" t="s">
         <v>108</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F39" t="s">
         <v>108</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F40" t="s">
         <v>108</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="F41" t="s">
         <v>108</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F42" t="s">
         <v>108</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F43" t="s">
         <v>108</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F44" t="s">
         <v>108</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F45" t="s">
         <v>108</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F46" t="s">
         <v>108</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F47" t="s">
         <v>108</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F48" t="s">
         <v>108</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F49" t="s">
         <v>108</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F50" t="s">
         <v>108</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F51" t="s">
         <v>108</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F52" t="s">
         <v>108</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F53" t="s">
         <v>108</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="F54" t="s">
         <v>108</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F55" t="s">
         <v>108</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F56" t="s">
         <v>108</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2588,22 +2588,22 @@
         <v>2006</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F57" t="s">
         <v>108</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2611,22 +2611,22 @@
         <v>2007</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F58" t="s">
         <v>108</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2634,68 +2634,65 @@
         <v>2007</v>
       </c>
       <c r="B59" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C59" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F59" t="s">
         <v>108</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C60" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>196</v>
-      </c>
-      <c r="F60" t="s">
+        <v>205</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>108</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B61" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C61" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>199</v>
-      </c>
-      <c r="F61" t="s">
-        <v>108</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>266</v>
+        <v>208</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2703,449 +2700,383 @@
         <v>2007</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>202</v>
-      </c>
-      <c r="F62" t="s">
+        <v>211</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>108</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B63" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>205</v>
-      </c>
-      <c r="F63" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>108</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B64" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>108</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B65" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>108</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>2007</v>
+        <v>1994</v>
       </c>
       <c r="B66" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="C66" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="B67" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="C67" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="B68" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="C68" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>250</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="B70" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="C70" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>250</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B71" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C71" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>250</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="B72" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C72" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B73" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C73" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>250</v>
+        <v>108</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="B75" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C75" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>250</v>
+        <v>108</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="B76" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="C76" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>259</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>250</v>
+        <v>128</v>
+      </c>
+      <c r="F76" t="s">
+        <v>108</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B77" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="C77" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>300</v>
-      </c>
-      <c r="F77" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77" t="s">
         <v>108</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B78" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C78" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>301</v>
-      </c>
-      <c r="F78" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F78" t="s">
         <v>108</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>2006</v>
-      </c>
-      <c r="B79" t="s">
-        <v>290</v>
-      </c>
-      <c r="C79" t="s">
-        <v>295</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" t="s">
-        <v>128</v>
-      </c>
-      <c r="F79" t="s">
-        <v>108</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>2006</v>
-      </c>
-      <c r="B80" t="s">
-        <v>289</v>
-      </c>
-      <c r="C80" t="s">
-        <v>296</v>
-      </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" t="s">
-        <v>162</v>
-      </c>
-      <c r="F80" t="s">
-        <v>108</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>2006</v>
-      </c>
-      <c r="B81" t="s">
-        <v>291</v>
-      </c>
-      <c r="C81" t="s">
-        <v>297</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" t="s">
-        <v>129</v>
-      </c>
-      <c r="F81" t="s">
-        <v>108</v>
-      </c>
-      <c r="G81" s="2" t="s">
         <v>294</v>
       </c>
     </row>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C9E810-1FA6-E742-83AE-806F578FA62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EE0FAC56-F9C7-504F-B98C-E2FDAF63B0C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="321">
   <si>
     <t>year</t>
   </si>
@@ -939,6 +939,63 @@
   </si>
   <si>
     <t>magic_warrior_of_the_country_said.jpeg</t>
+  </si>
+  <si>
+    <t>6-32</t>
+  </si>
+  <si>
+    <t>6-50</t>
+  </si>
+  <si>
+    <t>6-51</t>
+  </si>
+  <si>
+    <t>6-52</t>
+  </si>
+  <si>
+    <t>6-17</t>
+  </si>
+  <si>
+    <t>6-19</t>
+  </si>
+  <si>
+    <t>6-21</t>
+  </si>
+  <si>
+    <t>6-49</t>
+  </si>
+  <si>
+    <t>亡者の村に潜む闇―ソード・ワールドRPGリプレイ集 バブリーズ編〈3〉</t>
+  </si>
+  <si>
+    <t>バブリーズ・フォーエバー―ソード・ワールドRPGリプレイ集バブリーズ編〈4〉</t>
+  </si>
+  <si>
+    <t>2万ガメルを取り返せ! ソード・ワールドRPGリプレイ集バブリーズ編1</t>
+  </si>
+  <si>
+    <t>Chaos Magician's Challenge-Sword World RPG Replay Collection Babureeze Edition &lt;2&gt;</t>
+  </si>
+  <si>
+    <t>Regain 20,000 Gamel! Sword World RPG Replay Collection Babureeze Hen 1</t>
+  </si>
+  <si>
+    <t>Darkness Hiding in the Village of the Dead-Sword World RPG Replay Collection Babureeze Edition &lt;3&gt;</t>
+  </si>
+  <si>
+    <t>Babble's Forever-Sword World RPG Replay Collection Babureeze Edition &lt;4&gt;</t>
+  </si>
+  <si>
+    <t>regain_20_000_gamel_2002.jpg</t>
+  </si>
+  <si>
+    <t>chaos_sorcerors_challenge_2003.jpg</t>
+  </si>
+  <si>
+    <t>darkness_lurking_village_deceased_2003.jpg</t>
+  </si>
+  <si>
+    <t>bablies_forever_2003.jpg</t>
   </si>
 </sst>
 </file>
@@ -1318,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1824,6 +1881,9 @@
       <c r="F22" t="s">
         <v>110</v>
       </c>
+      <c r="G22" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -1959,6 +2019,9 @@
       <c r="F28" t="s">
         <v>108</v>
       </c>
+      <c r="G28" s="2" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -1979,6 +2042,9 @@
       <c r="F29" t="s">
         <v>108</v>
       </c>
+      <c r="G29" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -1999,6 +2065,9 @@
       <c r="F30" t="s">
         <v>108</v>
       </c>
+      <c r="G30" s="2" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -3078,6 +3147,98 @@
       </c>
       <c r="G78" s="2" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2002</v>
+      </c>
+      <c r="B79" t="s">
+        <v>312</v>
+      </c>
+      <c r="C79" t="s">
+        <v>314</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>317</v>
+      </c>
+      <c r="F79" t="s">
+        <v>108</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2003</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" t="s">
+        <v>313</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>318</v>
+      </c>
+      <c r="F80" t="s">
+        <v>108</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2003</v>
+      </c>
+      <c r="B81" t="s">
+        <v>310</v>
+      </c>
+      <c r="C81" t="s">
+        <v>315</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>319</v>
+      </c>
+      <c r="F81" t="s">
+        <v>108</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2003</v>
+      </c>
+      <c r="B82" t="s">
+        <v>311</v>
+      </c>
+      <c r="C82" t="s">
+        <v>316</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>320</v>
+      </c>
+      <c r="F82" t="s">
+        <v>108</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EE0FAC56-F9C7-504F-B98C-E2FDAF63B0C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA8C2682-CB05-4749-B63F-A1760D8A8B76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="322">
   <si>
     <t>year</t>
   </si>
@@ -996,6 +996,9 @@
   </si>
   <si>
     <t>bablies_forever_2003.jpg</t>
+  </si>
+  <si>
+    <t>6-81</t>
   </si>
 </sst>
 </file>
@@ -1377,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2763,6 +2766,9 @@
       <c r="F61" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="G61" s="2" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA8C2682-CB05-4749-B63F-A1760D8A8B76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2CD4E46D-CC11-544D-9D21-7744ACB477C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="335">
   <si>
     <t>year</t>
   </si>
@@ -999,6 +999,45 @@
   </si>
   <si>
     <t>6-81</t>
+  </si>
+  <si>
+    <t>迷探偵登場!デュダRPGリプレイ集〈1〉</t>
+  </si>
+  <si>
+    <t>The Detective Appears! Duda RPG Replay Collection &lt;1&gt;</t>
+  </si>
+  <si>
+    <t>疑惑の石像―デュダRPGリプレイ集〈2〉</t>
+  </si>
+  <si>
+    <t>Alleged Stone Statue-Duda RPG Replay Collection &lt;2&gt;</t>
+  </si>
+  <si>
+    <t>6-29</t>
+  </si>
+  <si>
+    <t>迷探偵がいっぱい―デュダRPGリプレイ集〈3〉</t>
+  </si>
+  <si>
+    <t>Lots of Detectives-Duda RPG Replay Collection &lt;3&gt;</t>
+  </si>
+  <si>
+    <t>6-23</t>
+  </si>
+  <si>
+    <t>6-38</t>
+  </si>
+  <si>
+    <t>6-36</t>
+  </si>
+  <si>
+    <t>detective_appears.jpg</t>
+  </si>
+  <si>
+    <t>alleged_stone_statue.jpg</t>
+  </si>
+  <si>
+    <t>lots_of_detectives.jpg</t>
   </si>
 </sst>
 </file>
@@ -1057,13 +1096,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1378,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2151,6 +2193,9 @@
       <c r="F34" t="s">
         <v>108</v>
       </c>
+      <c r="G34" s="2" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -2171,6 +2216,9 @@
       <c r="F35" t="s">
         <v>108</v>
       </c>
+      <c r="G35" s="2" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -3245,6 +3293,72 @@
       </c>
       <c r="G82" s="2" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1995</v>
+      </c>
+      <c r="B83" t="s">
+        <v>322</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>332</v>
+      </c>
+      <c r="F83" t="s">
+        <v>108</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1996</v>
+      </c>
+      <c r="B84" t="s">
+        <v>324</v>
+      </c>
+      <c r="C84" t="s">
+        <v>325</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>333</v>
+      </c>
+      <c r="F84" t="s">
+        <v>108</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1997</v>
+      </c>
+      <c r="B85" t="s">
+        <v>327</v>
+      </c>
+      <c r="C85" t="s">
+        <v>328</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>334</v>
+      </c>
+      <c r="F85" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2CD4E46D-CC11-544D-9D21-7744ACB477C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A4E60A-093C-9B43-9EFD-50ECFABED5DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="341">
   <si>
     <t>year</t>
   </si>
@@ -128,9 +128,6 @@
     <t>西部諸国ワールドガイド</t>
   </si>
   <si>
-    <t>Western Countries World Guide</t>
-  </si>
-  <si>
     <t>western_countries_world_guide.jpg</t>
   </si>
   <si>
@@ -1038,6 +1035,27 @@
   </si>
   <si>
     <t>lots_of_detectives.jpg</t>
+  </si>
+  <si>
+    <t>Ten Children World Guide</t>
+  </si>
+  <si>
+    <t>6-24</t>
+  </si>
+  <si>
+    <t>6-26</t>
+  </si>
+  <si>
+    <t>6-31</t>
+  </si>
+  <si>
+    <t>6-34</t>
+  </si>
+  <si>
+    <t>6-39</t>
+  </si>
+  <si>
+    <t>6-40</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1106,6 +1124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1422,17 +1441,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D430A7-E684-4C40-967F-9BBFE637BC2E}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="77.1640625" customWidth="1"/>
-    <col min="3" max="3" width="67.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="4" max="6" width="24.1640625" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -1453,79 +1470,70 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1990</v>
+        <v>1996</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>282</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1533,179 +1541,188 @@
         <v>1996</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>334</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2004</v>
+        <v>1989</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>286</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -1714,33 +1731,33 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>118</v>
@@ -1751,19 +1768,19 @@
         <v>1991</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>119</v>
@@ -1774,22 +1791,22 @@
         <v>1991</v>
       </c>
       <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1797,45 +1814,45 @@
         <v>1992</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>122</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1843,315 +1860,321 @@
         <v>1993</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>125</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1989</v>
+        <v>1994</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>237</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" t="s">
-        <v>108</v>
+        <v>238</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>115</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" t="s">
-        <v>108</v>
+        <v>242</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>88</v>
+        <v>321</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>331</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" t="s">
-        <v>108</v>
+        <v>243</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2159,1209 +2182,1224 @@
         <v>1996</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
         <v>108</v>
       </c>
+      <c r="G33" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>323</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>332</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>245</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" t="s">
-        <v>108</v>
+        <v>246</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="F36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>269</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
-      </c>
-      <c r="F38" t="s">
-        <v>108</v>
+        <v>259</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>326</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>327</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>333</v>
       </c>
       <c r="F39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>223</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>224</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>225</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" t="s">
-        <v>108</v>
+        <v>252</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>255</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
-      </c>
-      <c r="F44" t="s">
-        <v>108</v>
+        <v>254</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>228</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="C45" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>158</v>
-      </c>
-      <c r="F45" t="s">
-        <v>108</v>
+        <v>258</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>261</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="F46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="F47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="F48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>311</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>313</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="F51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>312</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>309</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
+        <v>314</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>184</v>
+        <v>318</v>
       </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>234</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="C54" t="s">
-        <v>186</v>
+        <v>315</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>235</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B57" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B58" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B59" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B60" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="C60" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>205</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>108</v>
+        <v>165</v>
+      </c>
+      <c r="F60" t="s">
+        <v>107</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B61" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="C61" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>208</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>108</v>
+        <v>168</v>
+      </c>
+      <c r="F61" t="s">
+        <v>107</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="C62" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>211</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>108</v>
+        <v>171</v>
+      </c>
+      <c r="F62" t="s">
+        <v>107</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B63" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>214</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>108</v>
+        <v>157</v>
+      </c>
+      <c r="F63" t="s">
+        <v>107</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B64" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="C64" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>217</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>108</v>
+        <v>174</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B65" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>220</v>
+        <v>299</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1994</v>
+        <v>2005</v>
       </c>
       <c r="B66" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>239</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>250</v>
+        <v>177</v>
+      </c>
+      <c r="F66" t="s">
+        <v>107</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1995</v>
+        <v>2006</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>243</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>250</v>
+        <v>159</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1996</v>
+        <v>2007</v>
       </c>
       <c r="B68" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="C68" t="s">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1996</v>
+        <v>2006</v>
       </c>
       <c r="B69" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="C69" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>247</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>250</v>
+        <v>180</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1997</v>
+        <v>2006</v>
       </c>
       <c r="B70" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>260</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>250</v>
+        <v>183</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1997</v>
+        <v>2006</v>
       </c>
       <c r="B71" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="C71" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>253</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>250</v>
+        <v>127</v>
+      </c>
+      <c r="F71" t="s">
+        <v>107</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="B72" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="C72" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>255</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>250</v>
+        <v>161</v>
+      </c>
+      <c r="F72" t="s">
+        <v>107</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="B73" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="C73" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>259</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>250</v>
+        <v>128</v>
+      </c>
+      <c r="F73" t="s">
+        <v>107</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="C74" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>300</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>108</v>
+        <v>195</v>
+      </c>
+      <c r="F74" t="s">
+        <v>107</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B75" t="s">
-        <v>265</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>301</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>108</v>
+        <v>188</v>
+      </c>
+      <c r="F75" t="s">
+        <v>107</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B76" t="s">
-        <v>290</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s">
-        <v>295</v>
+        <v>187</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="F76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B77" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="C77" t="s">
-        <v>296</v>
+        <v>191</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="F77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B78" t="s">
-        <v>291</v>
+        <v>196</v>
       </c>
       <c r="C78" t="s">
-        <v>297</v>
+        <v>197</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="F78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="B79" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="C79" t="s">
-        <v>314</v>
+        <v>200</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>317</v>
+        <v>201</v>
       </c>
       <c r="F79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="C80" t="s">
-        <v>313</v>
+        <v>203</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>318</v>
-      </c>
-      <c r="F80" t="s">
-        <v>108</v>
+        <v>204</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="B81" t="s">
-        <v>310</v>
+        <v>205</v>
       </c>
       <c r="C81" t="s">
-        <v>315</v>
+        <v>206</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>319</v>
-      </c>
-      <c r="F81" t="s">
-        <v>108</v>
+        <v>207</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="B82" t="s">
-        <v>311</v>
+        <v>208</v>
       </c>
       <c r="C82" t="s">
-        <v>316</v>
+        <v>209</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>320</v>
-      </c>
-      <c r="F82" t="s">
-        <v>108</v>
+        <v>210</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="B83" t="s">
-        <v>322</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>323</v>
+        <v>211</v>
+      </c>
+      <c r="C83" t="s">
+        <v>212</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>332</v>
-      </c>
-      <c r="F83" t="s">
-        <v>108</v>
+        <v>213</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>329</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>1996</v>
+        <v>2007</v>
       </c>
       <c r="B84" t="s">
-        <v>324</v>
+        <v>214</v>
       </c>
       <c r="C84" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>333</v>
-      </c>
-      <c r="F84" t="s">
-        <v>108</v>
+        <v>216</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="B85" t="s">
-        <v>327</v>
+        <v>217</v>
       </c>
       <c r="C85" t="s">
-        <v>328</v>
+        <v>218</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>334</v>
-      </c>
-      <c r="F85" t="s">
-        <v>108</v>
+        <v>219</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G85">
+    <sortCondition ref="A6:A85"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sword-world/checklist.xlsx
+++ b/sword-world/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/sword-world/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/sword-world/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A4E60A-093C-9B43-9EFD-50ECFABED5DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C2511D-40CF-B441-B0A4-DD7D265DF52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="16340" xr2:uid="{40353CB1-C1C9-6644-9E02-3913D474AAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -1442,7 +1442,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1478,381 +1478,387 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>334</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>112</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>281</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>117</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
         <v>107</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
         <v>109</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1860,68 +1866,68 @@
         <v>1993</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>122</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>236</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>237</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" t="s">
-        <v>109</v>
+        <v>238</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1929,68 +1935,68 @@
         <v>1994</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
         <v>107</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>249</v>
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>274</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
         <v>107</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1998,45 +2004,45 @@
         <v>1995</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>239</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" t="s">
-        <v>109</v>
+        <v>242</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1995</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
+        <v>321</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="F26" t="s">
         <v>107</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2044,68 +2050,62 @@
         <v>1995</v>
       </c>
       <c r="B27" t="s">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>239</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>242</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>249</v>
+        <v>77</v>
+      </c>
+      <c r="F27" t="s">
+        <v>107</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B28" t="s">
-        <v>321</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>322</v>
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>331</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>328</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>334</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>335</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2156,25 +2156,25 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2182,22 +2182,22 @@
         <v>1996</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>125</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2205,22 +2205,22 @@
         <v>1996</v>
       </c>
       <c r="B34" t="s">
-        <v>323</v>
+        <v>244</v>
       </c>
       <c r="C34" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>332</v>
-      </c>
-      <c r="F34" t="s">
-        <v>107</v>
+        <v>246</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2228,45 +2228,45 @@
         <v>1996</v>
       </c>
       <c r="B35" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>246</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>249</v>
+        <v>92</v>
+      </c>
+      <c r="F35" t="s">
+        <v>107</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>337</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2777,25 +2777,25 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F59" t="s">
         <v>107</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2803,45 +2803,45 @@
         <v>2004</v>
       </c>
       <c r="B60" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F60" t="s">
         <v>107</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F61" t="s">
         <v>107</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2984,25 +2984,25 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B68" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="C68" t="s">
-        <v>298</v>
+        <v>179</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>300</v>
-      </c>
-      <c r="F68" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -3010,22 +3010,22 @@
         <v>2006</v>
       </c>
       <c r="B69" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -3033,22 +3033,22 @@
         <v>2006</v>
       </c>
       <c r="B70" t="s">
-        <v>181</v>
+        <v>289</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>183</v>
-      </c>
-      <c r="F70" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F70" t="s">
         <v>107</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3056,22 +3056,22 @@
         <v>2006</v>
       </c>
       <c r="B71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C71" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="F71" t="s">
         <v>107</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -3079,22 +3079,22 @@
         <v>2006</v>
       </c>
       <c r="B72" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C72" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="F72" t="s">
         <v>107</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3102,22 +3102,22 @@
         <v>2006</v>
       </c>
       <c r="B73" t="s">
-        <v>290</v>
+        <v>193</v>
       </c>
       <c r="C73" t="s">
-        <v>296</v>
+        <v>194</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="F73" t="s">
         <v>107</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -3125,22 +3125,22 @@
         <v>2006</v>
       </c>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F74" t="s">
         <v>107</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -3148,22 +3148,22 @@
         <v>2006</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>188</v>
-      </c>
-      <c r="F75" t="s">
+        <v>207</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>107</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>234</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3171,22 +3171,22 @@
         <v>2007</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>298</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>189</v>
-      </c>
-      <c r="F76" t="s">
+        <v>300</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>107</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -3194,22 +3194,22 @@
         <v>2007</v>
       </c>
       <c r="B77" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F77" t="s">
         <v>107</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -3217,22 +3217,22 @@
         <v>2007</v>
       </c>
       <c r="B78" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F78" t="s">
         <v>107</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -3240,68 +3240,68 @@
         <v>2007</v>
       </c>
       <c r="B79" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F79" t="s">
         <v>107</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C80" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>204</v>
-      </c>
-      <c r="F80" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F80" t="s">
         <v>107</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B81" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C81" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>107</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -3309,22 +3309,22 @@
         <v>2007</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>107</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -3332,45 +3332,45 @@
         <v>2007</v>
       </c>
       <c r="B83" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C83" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>107</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B84" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C84" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>216</v>
-      </c>
-      <c r="F84" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -3398,7 +3398,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G85">
-    <sortCondition ref="A6:A85"/>
+    <sortCondition ref="A2:A85"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
